--- a/FIN-6322/Chapter 9/Problem09-5_g.xlsx
+++ b/FIN-6322/Chapter 9/Problem09-5_g.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gad075000\Documents\_UTD\Courses\FIN6322 -19S\Selected Solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twodegrees1-my.sharepoint.com/personal/rahul_kotian_slalom_com/Documents/Documents/Personal/UTD/Summer - 24/FIN-6322/Chapter 9/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_1998DBFA941CD6018889DE0C686F00E3341F285A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8B6B45B-B71D-41CC-AB68-52A3607C44D4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="19155" windowHeight="12300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -158,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -357,23 +371,20 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -408,9 +419,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -448,9 +459,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,7 +496,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -520,7 +531,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -693,21 +704,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
@@ -717,44 +728,44 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="24">
         <v>0.12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="25">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="24">
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C9" s="3">
         <v>1</v>
       </c>
@@ -771,84 +782,84 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>25</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>26</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>27</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>28</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <f>B5</f>
         <v>3</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <f>C11*(1+$B$6)</f>
         <v>3.18</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <f t="shared" ref="E11:G11" si="0">D11*(1+$B$6)</f>
         <v>3.3708000000000005</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="7">
         <f t="shared" si="0"/>
         <v>3.5730480000000009</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="7">
         <f t="shared" si="0"/>
         <v>3.7874308800000009</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <f>SUM(C10:C11)</f>
         <v>28</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <f t="shared" ref="D12:G12" si="1">SUM(D10:D11)</f>
         <v>29.18</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <f t="shared" si="1"/>
         <v>30.370799999999999</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <f t="shared" si="1"/>
         <v>31.573048</v>
       </c>
-      <c r="G12" s="7">
-        <f t="shared" si="1"/>
+      <c r="G12" s="6">
+        <f>SUM(G10:G11)</f>
         <v>32.787430880000002</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -860,11 +871,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="10">
         <f>PMT($B$4,5,-B14)</f>
         <v>30.11259462717517</v>
       </c>
@@ -872,42 +883,42 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="26">
         <v>850000</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="24">
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="26">
         <v>900000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -918,10 +929,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>24</v>
       </c>
@@ -946,7 +957,7 @@
         <v>1244485.0000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>25</v>
       </c>
@@ -971,7 +982,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>7</v>
       </c>
@@ -979,149 +990,149 @@
         <f>IF(C24&gt;C25,C24-C25,0)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <f t="shared" ref="D26:G26" si="4">IF(D24&gt;D25,D24-D25,0)</f>
         <v>35000.000000000116</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="4">
         <f t="shared" si="4"/>
         <v>128500.00000000023</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="4">
         <f t="shared" si="4"/>
         <v>231350.00000000023</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="4">
         <f t="shared" si="4"/>
         <v>344485.00000000047</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="4">
         <f>C26*$B$22</f>
         <v>0</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="4">
         <f t="shared" ref="D27:G27" si="5">D26*$B$22</f>
         <v>2800.0000000000095</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="4">
         <f t="shared" si="5"/>
         <v>10280.000000000018</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="4">
         <f t="shared" si="5"/>
         <v>18508.000000000018</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="4">
         <f t="shared" si="5"/>
         <v>27558.800000000039</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="20" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B29" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="18">
         <f>C27/10000</f>
         <v>0</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="18">
         <f t="shared" ref="D29:G29" si="6">D27/10000</f>
         <v>0.28000000000000097</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="18">
         <f t="shared" si="6"/>
         <v>1.0280000000000018</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="18">
         <f t="shared" si="6"/>
         <v>1.8508000000000018</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="19">
         <f t="shared" si="6"/>
         <v>2.7558800000000039</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="23" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B30" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="13">
         <v>23</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="13">
         <v>24</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="13">
         <v>25</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="13">
         <v>26</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="21">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="25" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B31" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="14">
         <f>$B$5</f>
         <v>3</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="14">
         <f>C31*(1+$B$6)</f>
         <v>3.18</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="14">
         <f t="shared" ref="E31:G31" si="7">D31*(1+$B$6)</f>
         <v>3.3708000000000005</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="14">
         <f t="shared" si="7"/>
         <v>3.5730480000000009</v>
       </c>
-      <c r="G31" s="26">
+      <c r="G31" s="23">
         <f t="shared" si="7"/>
         <v>3.7874308800000009</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="19">
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C32" s="16">
         <f>SUM(C29:C31)</f>
         <v>26</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="16">
         <f>SUM(D29:D31)</f>
         <v>27.46</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="16">
         <f>SUM(E29:E31)</f>
         <v>29.398800000000001</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="16">
         <f>SUM(F29:F31)</f>
         <v>31.423848000000003</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="16">
         <f>SUM(G29:G31)</f>
         <v>33.543310880000007</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1130,16 +1141,16 @@
         <v>105.03451366132899</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="10">
         <f>PMT($B$4,5,-B34)</f>
         <v>29.137596279347711</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -1147,7 +1158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -1155,12 +1166,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1169,7 +1180,7 @@
         <v>850000</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1177,16 +1188,16 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>4</v>
       </c>
       <c r="B44" s="4">
-        <f t="shared" ref="B43:B44" si="8">B21</f>
+        <f t="shared" ref="B44" si="8">B21</f>
         <v>900000</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1194,10 +1205,10 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>2</v>
       </c>
@@ -1222,7 +1233,7 @@
         <v>1762560</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>25</v>
       </c>
@@ -1247,7 +1258,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>7</v>
       </c>
@@ -1255,142 +1266,142 @@
         <f>IF(C47&gt;C48,C47-C48,0)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="4">
         <f t="shared" ref="D49:G49" si="11">IF(D47&gt;D48,D47-D48,0)</f>
         <v>120000</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="4">
         <f t="shared" si="11"/>
         <v>324000</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="4">
         <f t="shared" si="11"/>
         <v>568800</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="4">
         <f t="shared" si="11"/>
         <v>862560</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="4">
         <f>C49*$B$22</f>
         <v>0</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="4">
         <f t="shared" ref="D50:G50" si="12">D49*$B$22</f>
         <v>9600</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="4">
         <f t="shared" si="12"/>
         <v>25920</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="4">
         <f t="shared" si="12"/>
         <v>45504</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="4">
         <f t="shared" si="12"/>
         <v>69004.800000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="14" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B51" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="13">
         <f>C50/10000</f>
         <v>0</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="13">
         <f t="shared" ref="D51:G51" si="13">D50/10000</f>
         <v>0.96</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="13">
         <f t="shared" si="13"/>
         <v>2.5920000000000001</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F51" s="13">
         <f t="shared" si="13"/>
         <v>4.5503999999999998</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="13">
         <f t="shared" si="13"/>
         <v>6.9004799999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="14" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B52" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="13">
         <v>23</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D52" s="13">
         <v>24</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E52" s="13">
         <v>25</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F52" s="13">
         <v>26</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G52" s="13">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="14" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B53" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="14">
         <f>$B$5</f>
         <v>3</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D53" s="14">
         <f>C53*(1+$B$6)</f>
         <v>3.18</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="14">
         <f t="shared" ref="E53" si="14">D53*(1+$B$6)</f>
         <v>3.3708000000000005</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="14">
         <f t="shared" ref="F53" si="15">E53*(1+$B$6)</f>
         <v>3.5730480000000009</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G53" s="14">
         <f t="shared" ref="G53" si="16">F53*(1+$B$6)</f>
         <v>3.7874308800000009</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="18">
+    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C54" s="15">
         <f>SUM(C51:C53)</f>
         <v>26</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D54" s="15">
         <f t="shared" ref="D54:G54" si="17">SUM(D51:D53)</f>
         <v>28.14</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="15">
         <f t="shared" si="17"/>
         <v>30.962799999999998</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="15">
         <f t="shared" si="17"/>
         <v>34.123448000000003</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="15">
         <f t="shared" si="17"/>
         <v>37.687910880000004</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -1399,11 +1410,11 @@
         <v>110.75723175631687</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="10">
         <f>PMT($B$4,5,-B56)</f>
         <v>30.72513397205249</v>
       </c>
